--- a/Docs/Programming/Meetings/22042013.xlsx
+++ b/Docs/Programming/Meetings/22042013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Opción de poder modificar la leyenda de los títulos de línea, por ejemplo ahora es Solución Terapéutica.</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Solo para exámenes mas no para asesorías</t>
+  </si>
+  <si>
+    <t>Se agregó opción de configurar el puntaje de la asesoría. Al crearla o editarla. Ya se puede crear más de 1 asesoría. Solo se puede editar mientras no se haya publicado la asesoría.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -131,11 +146,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -150,19 +180,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E15" totalsRowShown="0">
-  <autoFilter ref="B2:E15">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Asesoría"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Cambio" dataDxfId="0"/>
-    <tableColumn id="2" name="Módulo"/>
-    <tableColumn id="3" name="Prioridad"/>
-    <tableColumn id="4" name="Estado"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:F15" totalsRowShown="0">
+  <autoFilter ref="B2:F15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Cambio" dataDxfId="3"/>
+    <tableColumn id="2" name="Módulo" dataDxfId="2"/>
+    <tableColumn id="3" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="4" name="Estado" dataDxfId="0"/>
+    <tableColumn id="5" name="Observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,19 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="81.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -480,124 +506,193 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Programming/Meetings/22042013.xlsx
+++ b/Docs/Programming/Meetings/22042013.xlsx
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -152,6 +158,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +496,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,61 +524,64 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -609,32 +625,34 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -654,18 +672,19 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">

--- a/Docs/Programming/Meetings/22042013.xlsx
+++ b/Docs/Programming/Meetings/22042013.xlsx
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -682,37 +682,39 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Programming/Meetings/22042013.xlsx
+++ b/Docs/Programming/Meetings/22042013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Opción de poder modificar la leyenda de los títulos de línea, por ejemplo ahora es Solución Terapéutica.</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>Pruebas</t>
   </si>
   <si>
     <t>Terminado</t>
@@ -144,16 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,201 +511,203 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
